--- a/results/etwfe_3yr.xlsx
+++ b/results/etwfe_3yr.xlsx
@@ -401,16 +401,16 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.003662680676039335</v>
+        <v>0.003780419775159393</v>
       </c>
       <c r="B2">
-        <v>0.002099558545660261</v>
+        <v>0.002161180608410398</v>
       </c>
       <c r="C2">
-        <v>1.74450037776275</v>
+        <v>1.749238245266316</v>
       </c>
       <c r="D2">
-        <v>0.1150345291778746</v>
+        <v>0.1141804817803584</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -421,24 +421,24 @@
         </is>
       </c>
       <c r="G2">
-        <v>-0.0004523784568880715</v>
+        <v>-0.0004554163814113471</v>
       </c>
       <c r="H2">
-        <v>0.00777773980896674</v>
+        <v>0.008016255931730134</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.0008868396484375911</v>
+        <v>-0.0001013639019431783</v>
       </c>
       <c r="B3">
-        <v>0.002656788849775839</v>
+        <v>0.002859888531504114</v>
       </c>
       <c r="C3">
-        <v>0.3338013288155799</v>
+        <v>-0.03544330515912363</v>
       </c>
       <c r="D3">
-        <v>0.7461754463134209</v>
+        <v>0.9724999179817273</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -449,24 +449,24 @@
         </is>
       </c>
       <c r="G3">
-        <v>-0.004320370811650648</v>
+        <v>-0.005706642423490386</v>
       </c>
       <c r="H3">
-        <v>0.00609405010852583</v>
+        <v>0.005503914619604028</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.003614474923481755</v>
+        <v>0.003342501261967503</v>
       </c>
       <c r="B4">
-        <v>0.002353449055289984</v>
+        <v>0.002294199797039427</v>
       </c>
       <c r="C4">
-        <v>1.535820337966225</v>
+        <v>1.456935558219849</v>
       </c>
       <c r="D4">
-        <v>0.1589565537507686</v>
+        <v>0.1791206648974942</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -477,10 +477,10 @@
         </is>
       </c>
       <c r="G4">
-        <v>-0.0009982004643364272</v>
+        <v>-0.001154047713568876</v>
       </c>
       <c r="H4">
-        <v>0.008227150311299936</v>
+        <v>0.007839050237503881</v>
       </c>
     </row>
     <row r="5">
@@ -569,16 +569,16 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>-0.0005507922646194306</v>
+        <v>-0.001045824912380277</v>
       </c>
       <c r="B8">
-        <v>0.003060339735522987</v>
+        <v>0.002360724156318583</v>
       </c>
       <c r="C8">
-        <v>-0.1799774901544729</v>
+        <v>-0.4430102134470392</v>
       </c>
       <c r="D8">
-        <v>0.8616455422969943</v>
+        <v>0.6694931069070613</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -589,24 +589,24 @@
         </is>
       </c>
       <c r="G8">
-        <v>-0.006548947926701319</v>
+        <v>-0.005672759236198405</v>
       </c>
       <c r="H8">
-        <v>0.005447363397462457</v>
+        <v>0.00358110941143785</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.004333696353232518</v>
+        <v>0.004100900283648934</v>
       </c>
       <c r="B9">
-        <v>0.002965772417519924</v>
+        <v>0.003039829986243809</v>
       </c>
       <c r="C9">
-        <v>1.461236987582647</v>
+        <v>1.3490558031886</v>
       </c>
       <c r="D9">
-        <v>0.1820852906588772</v>
+        <v>0.2142568483693473</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -617,24 +617,24 @@
         </is>
       </c>
       <c r="G9">
-        <v>-0.00147911077144882</v>
+        <v>-0.001857057008513819</v>
       </c>
       <c r="H9">
-        <v>0.01014650347791386</v>
+        <v>0.01005885757581169</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>-0.004187827645986391</v>
+        <v>-0.00404819876353142</v>
       </c>
       <c r="B10">
-        <v>0.001584921616365317</v>
+        <v>0.002182221186779891</v>
       </c>
       <c r="C10">
-        <v>-2.642293223049281</v>
+        <v>-1.85508178000278</v>
       </c>
       <c r="D10">
-        <v>0.02960776752231394</v>
+        <v>0.1006881653874647</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -645,24 +645,24 @@
         </is>
       </c>
       <c r="G10">
-        <v>-0.007294216932381421</v>
+        <v>-0.00832527369592026</v>
       </c>
       <c r="H10">
-        <v>-0.001081438359591361</v>
+        <v>0.0002288761688574205</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>-0.0003948230971798206</v>
+        <v>-0.0004052289914782051</v>
       </c>
       <c r="B11">
-        <v>0.007165651390096565</v>
+        <v>0.006540577984434155</v>
       </c>
       <c r="C11">
-        <v>-0.05509940069447056</v>
+        <v>-0.06195614400479664</v>
       </c>
       <c r="D11">
-        <v>0.9568970778394839</v>
+        <v>0.9515401912472069</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -673,24 +673,24 @@
         </is>
       </c>
       <c r="G11">
-        <v>-0.01443924174753846</v>
+        <v>-0.01322452627904473</v>
       </c>
       <c r="H11">
-        <v>0.01364959555317882</v>
+        <v>0.01241406829608831</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.0001711988146181607</v>
+        <v>0.0001728693898555322</v>
       </c>
       <c r="B12">
-        <v>0.006383964380554039</v>
+        <v>0.005205479983471343</v>
       </c>
       <c r="C12">
-        <v>0.02681700655154705</v>
+        <v>0.03320911623989224</v>
       </c>
       <c r="D12">
-        <v>0.979012985267281</v>
+        <v>0.9740123036444271</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -701,24 +701,24 @@
         </is>
       </c>
       <c r="G12">
-        <v>-0.01234114144985431</v>
+        <v>-0.01002968389999245</v>
       </c>
       <c r="H12">
-        <v>0.01268353907909063</v>
+        <v>0.01037542267970352</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>-0.005765112398076597</v>
+        <v>-0.005749948694660103</v>
       </c>
       <c r="B13">
-        <v>0.005355552190627755</v>
+        <v>0.00484822527682349</v>
       </c>
       <c r="C13">
-        <v>-1.076473945705463</v>
+        <v>-1.185990412233364</v>
       </c>
       <c r="D13">
-        <v>0.3012873291650243</v>
+        <v>0.25685072839945</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="G13">
-        <v>-0.01626180180903158</v>
+        <v>-0.01525229562617088</v>
       </c>
       <c r="H13">
-        <v>0.004731577012878392</v>
+        <v>0.003752398236850668</v>
       </c>
     </row>
     <row r="14">
@@ -821,16 +821,16 @@
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.01413523495314232</v>
+        <v>0.01395800723348252</v>
       </c>
       <c r="B17">
-        <v>0.006592395938860401</v>
+        <v>0.007964630203698119</v>
       </c>
       <c r="C17">
-        <v>2.144172632262408</v>
+        <v>1.752499096191757</v>
       </c>
       <c r="D17">
-        <v>0.04053217979022952</v>
+        <v>0.09025640038395599</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -841,24 +841,24 @@
         </is>
       </c>
       <c r="G17">
-        <v>0.001214376341147815</v>
+        <v>-0.001652381115945706</v>
       </c>
       <c r="H17">
-        <v>0.02705609356513682</v>
+        <v>0.02956839558291074</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.002080775560291757</v>
+        <v>0.002061807265499502</v>
       </c>
       <c r="B18">
-        <v>0.006703966502794944</v>
+        <v>0.006765554019618899</v>
       </c>
       <c r="C18">
-        <v>0.3103797668774542</v>
+        <v>0.304750691446795</v>
       </c>
       <c r="D18">
-        <v>0.7584919283636354</v>
+        <v>0.7627324408132642</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -869,24 +869,24 @@
         </is>
       </c>
       <c r="G18">
-        <v>-0.01105875733874927</v>
+        <v>-0.01119843494841373</v>
       </c>
       <c r="H18">
-        <v>0.01522030845933278</v>
+        <v>0.01532204947941274</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>-0.001178523285377828</v>
+        <v>-0.0008734576397405732</v>
       </c>
       <c r="B19">
-        <v>0.004520711921269325</v>
+        <v>0.004586033098915379</v>
       </c>
       <c r="C19">
-        <v>-0.2606941795678329</v>
+        <v>-0.1904603872019917</v>
       </c>
       <c r="D19">
-        <v>0.796170658598671</v>
+        <v>0.8502754137756725</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -897,24 +897,24 @@
         </is>
       </c>
       <c r="G19">
-        <v>-0.01003895583554658</v>
+        <v>-0.00986191734552333</v>
       </c>
       <c r="H19">
-        <v>0.007681909264790919</v>
+        <v>0.008115002066042182</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>-0.002639961736887369</v>
+        <v>-0.002734124991751721</v>
       </c>
       <c r="B20">
-        <v>0.00475216304421527</v>
+        <v>0.004534424251624151</v>
       </c>
       <c r="C20">
-        <v>-0.5555284430110097</v>
+        <v>-0.6029707058779085</v>
       </c>
       <c r="D20">
-        <v>0.6081371888860287</v>
+        <v>0.5790467948734455</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -925,24 +925,24 @@
         </is>
       </c>
       <c r="G20">
-        <v>-0.01195403015221152</v>
+        <v>-0.01162143321556004</v>
       </c>
       <c r="H20">
-        <v>0.006674106678436782</v>
+        <v>0.0061531832320566</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>-0.0008536863844903178</v>
+        <v>-0.0008136259582416546</v>
       </c>
       <c r="B21">
-        <v>0.002051698357679484</v>
+        <v>0.001954734053126731</v>
       </c>
       <c r="C21">
-        <v>-0.4160876677095243</v>
+        <v>-0.4162335827424729</v>
       </c>
       <c r="D21">
-        <v>0.698701141483548</v>
+        <v>0.6986027084270694</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -953,24 +953,24 @@
         </is>
       </c>
       <c r="G21">
-        <v>-0.004874941272682084</v>
+        <v>-0.004644834301724052</v>
       </c>
       <c r="H21">
-        <v>0.003167568503701447</v>
+        <v>0.003017582385240742</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.0003707535459593218</v>
+        <v>0.0005918806219752917</v>
       </c>
       <c r="B22">
-        <v>0.002887487605934018</v>
+        <v>0.002771522442586044</v>
       </c>
       <c r="C22">
-        <v>0.1284000475698644</v>
+        <v>0.2135579394489844</v>
       </c>
       <c r="D22">
-        <v>0.9040293011468711</v>
+        <v>0.8413353798376381</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -981,24 +981,24 @@
         </is>
       </c>
       <c r="G22">
-        <v>-0.005288618167477137</v>
+        <v>-0.004840203547837834</v>
       </c>
       <c r="H22">
-        <v>0.00603012525939578</v>
+        <v>0.006023964791788417</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>-0.002470238720362147</v>
+        <v>-0.003212896849130337</v>
       </c>
       <c r="B23">
-        <v>0.009287903423485242</v>
+        <v>0.008857231014057911</v>
       </c>
       <c r="C23">
-        <v>-0.2659630066906102</v>
+        <v>-0.3627428079984513</v>
       </c>
       <c r="D23">
-        <v>0.7909878861258062</v>
+        <v>0.7178038891595321</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -1009,24 +1009,24 @@
         </is>
       </c>
       <c r="G23">
-        <v>-0.02067419492227949</v>
+        <v>-0.02057275063943502</v>
       </c>
       <c r="H23">
-        <v>0.01573371748155519</v>
+        <v>0.01414695694117435</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.02847210444600087</v>
+        <v>0.02879546176289303</v>
       </c>
       <c r="B24">
-        <v>0.009366805907839549</v>
+        <v>0.009724493144795931</v>
       </c>
       <c r="C24">
-        <v>3.039681266606703</v>
+        <v>2.961127262278234</v>
       </c>
       <c r="D24">
-        <v>0.003247152240318593</v>
+        <v>0.00408785415657258</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1037,24 +1037,24 @@
         </is>
       </c>
       <c r="G24">
-        <v>0.01011350221645835</v>
+        <v>0.009735805431186361</v>
       </c>
       <c r="H24">
-        <v>0.04683070667554338</v>
+        <v>0.04785511809459971</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>-0.009741102705307354</v>
+        <v>-0.0100532392357189</v>
       </c>
       <c r="B25">
-        <v>0.008758296116103674</v>
+        <v>0.008278956891592672</v>
       </c>
       <c r="C25">
-        <v>-1.112214359525549</v>
+        <v>-1.214312306170844</v>
       </c>
       <c r="D25">
-        <v>0.2695518292324759</v>
+        <v>0.2283882177436955</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1065,24 +1065,24 @@
         </is>
       </c>
       <c r="G25">
-        <v>-0.02690704765880759</v>
+        <v>-0.02627969657280021</v>
       </c>
       <c r="H25">
-        <v>0.007424842248192879</v>
+        <v>0.006173218101362411</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>-0.03722764246742145</v>
+        <v>-0.03840694347983986</v>
       </c>
       <c r="B26">
-        <v>0.0146334524403876</v>
+        <v>0.01424664570913895</v>
       </c>
       <c r="C26">
-        <v>-2.544009530155372</v>
+        <v>-2.695858678875024</v>
       </c>
       <c r="D26">
-        <v>0.0184950254204637</v>
+        <v>0.01320068113881054</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -1093,24 +1093,24 @@
         </is>
       </c>
       <c r="G26">
-        <v>-0.06590868222006091</v>
+        <v>-0.0663298559702543</v>
       </c>
       <c r="H26">
-        <v>-0.008546602714781998</v>
+        <v>-0.01048403098942542</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.006769464597729468</v>
+        <v>0.006364522811528245</v>
       </c>
       <c r="B27">
-        <v>0.02141434691790177</v>
+        <v>0.02201636987639252</v>
       </c>
       <c r="C27">
-        <v>0.3161181904674568</v>
+        <v>0.2890813902228599</v>
       </c>
       <c r="D27">
-        <v>0.7548924760486678</v>
+        <v>0.7752256626081027</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1121,24 +1121,24 @@
         </is>
       </c>
       <c r="G27">
-        <v>-0.03520188411380432</v>
+        <v>-0.03678676921651366</v>
       </c>
       <c r="H27">
-        <v>0.04874081330926324</v>
+        <v>0.04951581483957014</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.01341967069982188</v>
+        <v>0.01348419371640538</v>
       </c>
       <c r="B28">
-        <v>0.01689019610428126</v>
+        <v>0.01741936851895814</v>
       </c>
       <c r="C28">
-        <v>0.79452426821855</v>
+        <v>0.774091994306799</v>
       </c>
       <c r="D28">
-        <v>0.4353779907860904</v>
+        <v>0.4471158826676547</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1149,24 +1149,24 @@
         </is>
       </c>
       <c r="G28">
-        <v>-0.01968450535638813</v>
+        <v>-0.0206571412141834</v>
       </c>
       <c r="H28">
-        <v>0.04652384675603187</v>
+        <v>0.04762552864699415</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.01112021440120644</v>
+        <v>0.01106838495833295</v>
       </c>
       <c r="B29">
-        <v>0.01571455622001121</v>
+        <v>0.01511505258209606</v>
       </c>
       <c r="C29">
-        <v>0.7076378260714578</v>
+        <v>0.7322756502642651</v>
       </c>
       <c r="D29">
-        <v>0.4893505819383072</v>
+        <v>0.4745913977883277</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -1177,24 +1177,24 @@
         </is>
       </c>
       <c r="G29">
-        <v>-0.01967974982304542</v>
+        <v>-0.01855657372700447</v>
       </c>
       <c r="H29">
-        <v>0.04192017862545828</v>
+        <v>0.04069334364367037</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.03464092818986318</v>
+        <v>0.03451310610566979</v>
       </c>
       <c r="B30">
-        <v>0.007554325456587665</v>
+        <v>0.007590655708310356</v>
       </c>
       <c r="C30">
-        <v>4.585575295760517</v>
+        <v>4.546788503117638</v>
       </c>
       <c r="D30">
-        <v>0.0003046813446777808</v>
+        <v>0.0003300480681728054</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1205,24 +1205,24 @@
         </is>
       </c>
       <c r="G30">
-        <v>0.01983472236745726</v>
+        <v>0.01963569429833813</v>
       </c>
       <c r="H30">
-        <v>0.0494471340122691</v>
+        <v>0.04939051791300146</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>-0.01166970178817743</v>
+        <v>-0.01161058341720344</v>
       </c>
       <c r="B31">
-        <v>0.01495765406654257</v>
+        <v>0.01538674470057311</v>
       </c>
       <c r="C31">
-        <v>-0.7801826233085803</v>
+        <v>-0.7545834835857762</v>
       </c>
       <c r="D31">
-        <v>0.4466722708389385</v>
+        <v>0.4614618406109267</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1233,24 +1233,24 @@
         </is>
       </c>
       <c r="G31">
-        <v>-0.04098616505180994</v>
+        <v>-0.04176804886963927</v>
       </c>
       <c r="H31">
-        <v>0.01764676147545507</v>
+        <v>0.01854688203523239</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>-0.01259686692483886</v>
+        <v>-0.01352810757095914</v>
       </c>
       <c r="B32">
-        <v>0.006832489759229671</v>
+        <v>0.006409052608144996</v>
       </c>
       <c r="C32">
-        <v>-1.843671541230249</v>
+        <v>-2.110781171271216</v>
       </c>
       <c r="D32">
-        <v>0.0881391705405576</v>
+        <v>0.05473036387979652</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -1261,24 +1261,24 @@
         </is>
       </c>
       <c r="G32">
-        <v>-0.02598830077766776</v>
+        <v>-0.02608961985794583</v>
       </c>
       <c r="H32">
-        <v>0.0007945669279900338</v>
+        <v>-0.0009665952839724486</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.001255391523621385</v>
+        <v>0.002092602936141794</v>
       </c>
       <c r="B33">
-        <v>0.009127048610740826</v>
+        <v>0.007001775233229149</v>
       </c>
       <c r="C33">
-        <v>0.1375462734080351</v>
+        <v>0.2988674823794231</v>
       </c>
       <c r="D33">
-        <v>0.8927065636570189</v>
+        <v>0.7697651886574901</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1289,24 +1289,24 @@
         </is>
       </c>
       <c r="G33">
-        <v>-0.01663329503857697</v>
+        <v>-0.01163062434883187</v>
       </c>
       <c r="H33">
-        <v>0.01914407808581974</v>
+        <v>0.01581583022111546</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>-0.00470435782943094</v>
+        <v>-0.005823964975600867</v>
       </c>
       <c r="B34">
-        <v>0.007460018408284236</v>
+        <v>0.00661611187666227</v>
       </c>
       <c r="C34">
-        <v>-0.6306094130018262</v>
+        <v>-0.8802700262890613</v>
       </c>
       <c r="D34">
-        <v>0.5392242146294607</v>
+        <v>0.3946952798472716</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1317,24 +1317,24 @@
         </is>
       </c>
       <c r="G34">
-        <v>-0.01932572523367386</v>
+        <v>-0.01879130597154662</v>
       </c>
       <c r="H34">
-        <v>0.00991700957481198</v>
+        <v>0.007143376020344887</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>-0.009142769273325522</v>
+        <v>-0.00912559808047789</v>
       </c>
       <c r="B35">
-        <v>0.007342901570619054</v>
+        <v>0.007566125122985282</v>
       </c>
       <c r="C35">
-        <v>-1.245116686557291</v>
+        <v>-1.20611249908557</v>
       </c>
       <c r="D35">
-        <v>0.229979434521634</v>
+        <v>0.2442923954116202</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -1345,24 +1345,24 @@
         </is>
       </c>
       <c r="G35">
-        <v>-0.02353459189376146</v>
+        <v>-0.02395493082405273</v>
       </c>
       <c r="H35">
-        <v>0.005249053347110417</v>
+        <v>0.005703734663096946</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>-0.0007609024928894818</v>
+        <v>-0.0007395133980666459</v>
       </c>
       <c r="B36">
-        <v>0.006063529811330317</v>
+        <v>0.006056416550040336</v>
       </c>
       <c r="C36">
-        <v>-0.1254883733675488</v>
+        <v>-0.1221041175019114</v>
       </c>
       <c r="D36">
-        <v>0.9016090096129991</v>
+        <v>0.904248365523463</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -1373,24 +1373,24 @@
         </is>
       </c>
       <c r="G36">
-        <v>-0.01264520254228185</v>
+        <v>-0.01260987171151803</v>
       </c>
       <c r="H36">
-        <v>0.01112339755650289</v>
+        <v>0.01113084491538473</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.002243926563252639</v>
+        <v>0.002277004385814838</v>
       </c>
       <c r="B37">
-        <v>0.009902619403715113</v>
+        <v>0.009917491162578252</v>
       </c>
       <c r="C37">
-        <v>0.226599293759669</v>
+        <v>0.229594798572312</v>
       </c>
       <c r="D37">
-        <v>0.8234376510998138</v>
+        <v>0.8211463466155284</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1401,10 +1401,10 @@
         </is>
       </c>
       <c r="G37">
-        <v>-0.01716485082063648</v>
+        <v>-0.01716092110983281</v>
       </c>
       <c r="H37">
-        <v>0.02165270394714176</v>
+        <v>0.02171492988146248</v>
       </c>
     </row>
     <row r="38">
@@ -1493,16 +1493,16 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>-0.01046407910014208</v>
+        <v>-0.01046743320236085</v>
       </c>
       <c r="B41">
-        <v>0.006652511533516452</v>
+        <v>0.005792413675994412</v>
       </c>
       <c r="C41">
-        <v>-1.572951666062105</v>
+        <v>-1.807093517118985</v>
       </c>
       <c r="D41">
-        <v>0.1196768087043835</v>
+        <v>0.07450724614059399</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -1513,24 +1513,24 @@
         </is>
       </c>
       <c r="G41">
-        <v>-0.02350276211257165</v>
+        <v>-0.02182035539086716</v>
       </c>
       <c r="H41">
-        <v>0.002574603912287492</v>
+        <v>0.0008854889861454537</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>-0.006326207095921083</v>
+        <v>-0.006359332678621436</v>
       </c>
       <c r="B42">
-        <v>0.006397263022522443</v>
+        <v>0.006266616233390853</v>
       </c>
       <c r="C42">
-        <v>-0.9888927614276296</v>
+        <v>-1.014795296500934</v>
       </c>
       <c r="D42">
-        <v>0.3256971710377039</v>
+        <v>0.3132627611672649</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -1541,24 +1541,24 @@
         </is>
       </c>
       <c r="G42">
-        <v>-0.01886461221969492</v>
+        <v>-0.01864167480100156</v>
       </c>
       <c r="H42">
-        <v>0.006212198027852751</v>
+        <v>0.005923009443758682</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>-0.003466770261171777</v>
+        <v>-0.003475757644596913</v>
       </c>
       <c r="B43">
-        <v>0.007686935807939407</v>
+        <v>0.007677741188125125</v>
       </c>
       <c r="C43">
-        <v>-0.4509950840998495</v>
+        <v>-0.4527057580389317</v>
       </c>
       <c r="D43">
-        <v>0.6532131746053422</v>
+        <v>0.6519859658892682</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1569,24 +1569,24 @@
         </is>
       </c>
       <c r="G43">
-        <v>-0.01853288759620432</v>
+        <v>-0.01852385385594192</v>
       </c>
       <c r="H43">
-        <v>0.01159934707386076</v>
+        <v>0.01157233856674809</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.002798718799459217</v>
+        <v>0.00261815694396825</v>
       </c>
       <c r="B44">
-        <v>0.002581634353073139</v>
+        <v>0.002590398432636182</v>
       </c>
       <c r="C44">
-        <v>1.084087991054064</v>
+        <v>1.010715923458855</v>
       </c>
       <c r="D44">
-        <v>0.3199540296569768</v>
+        <v>0.351160929387098</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -1597,24 +1597,24 @@
         </is>
       </c>
       <c r="G44">
-        <v>-0.002261191553815496</v>
+        <v>-0.002458930689607672</v>
       </c>
       <c r="H44">
-        <v>0.007858629152733929</v>
+        <v>0.007695244577544172</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.008123119045496761</v>
+        <v>0.007862258417395339</v>
       </c>
       <c r="B45">
-        <v>0.00451671970960292</v>
+        <v>0.004472145304558635</v>
       </c>
       <c r="C45">
-        <v>1.798455420695319</v>
+        <v>1.758050752371804</v>
       </c>
       <c r="D45">
-        <v>0.1222135597856865</v>
+        <v>0.1292432722895463</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -1625,24 +1625,24 @@
         </is>
       </c>
       <c r="G45">
-        <v>-0.0007294889135871733</v>
+        <v>-0.0009029853131694958</v>
       </c>
       <c r="H45">
-        <v>0.01697572700458069</v>
+        <v>0.01662750214796017</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.002317432549874484</v>
+        <v>0.002394646269057716</v>
       </c>
       <c r="B46">
-        <v>0.001640576932677917</v>
+        <v>0.001778015306072398</v>
       </c>
       <c r="C46">
-        <v>1.412571701890099</v>
+        <v>1.346808579700837</v>
       </c>
       <c r="D46">
-        <v>0.2074908896507092</v>
+        <v>0.2266838345733525</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1653,24 +1653,24 @@
         </is>
       </c>
       <c r="G46">
-        <v>-0.0008980391520414265</v>
+        <v>-0.001090199694805145</v>
       </c>
       <c r="H46">
-        <v>0.005532904251790393</v>
+        <v>0.005879492232920575</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>-0.03682216194412464</v>
+        <v>-0.03677593475442557</v>
       </c>
       <c r="B47">
-        <v>0.009433046572828712</v>
+        <v>0.007955772226343191</v>
       </c>
       <c r="C47">
-        <v>-3.903528055314443</v>
+        <v>-4.62254746719029</v>
       </c>
       <c r="D47">
-        <v>0.00452210316402376</v>
+        <v>0.00170452738892806</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -1681,24 +1681,24 @@
         </is>
       </c>
       <c r="G47">
-        <v>-0.0553105934913579</v>
+        <v>-0.05236896178726226</v>
       </c>
       <c r="H47">
-        <v>-0.01833373039689138</v>
+        <v>-0.02118290772158887</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>-0.003899635670082576</v>
+        <v>-0.005772636976726109</v>
       </c>
       <c r="B48">
-        <v>0.006695951667946277</v>
+        <v>0.007456359679845355</v>
       </c>
       <c r="C48">
-        <v>-0.5823870696006141</v>
+        <v>-0.7741897151675271</v>
       </c>
       <c r="D48">
-        <v>0.5763473574876494</v>
+        <v>0.4610833575263152</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -1709,24 +1709,24 @@
         </is>
       </c>
       <c r="G48">
-        <v>-0.01702345978147818</v>
+        <v>-0.02038683340499961</v>
       </c>
       <c r="H48">
-        <v>0.009224188441313026</v>
+        <v>0.008841559451547392</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.002729483570269546</v>
+        <v>0.002438099156149282</v>
       </c>
       <c r="B49">
-        <v>0.00828569448847122</v>
+        <v>0.007959586484201116</v>
       </c>
       <c r="C49">
-        <v>0.3294212179881085</v>
+        <v>0.3063097763921072</v>
       </c>
       <c r="D49">
-        <v>0.7502965662993474</v>
+        <v>0.7671890167680246</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1737,24 +1737,24 @@
         </is>
       </c>
       <c r="G49">
-        <v>-0.01351017921403607</v>
+        <v>-0.0131624036847167</v>
       </c>
       <c r="H49">
-        <v>0.01896914635457516</v>
+        <v>0.01803860199701526</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>-0.009279546815312513</v>
+        <v>-0.006787178945823257</v>
       </c>
       <c r="B50">
-        <v>0.004867441510772701</v>
+        <v>0.004577572390725964</v>
       </c>
       <c r="C50">
-        <v>-1.906452659939492</v>
+        <v>-1.482702700578563</v>
       </c>
       <c r="D50">
-        <v>0.08081649509224652</v>
+        <v>0.1639335934183216</v>
       </c>
       <c r="E50">
         <v>2</v>
@@ -1765,24 +1765,24 @@
         </is>
       </c>
       <c r="G50">
-        <v>-0.01881955687328224</v>
+        <v>-0.01575905596827106</v>
       </c>
       <c r="H50">
-        <v>0.0002604632426572075</v>
+        <v>0.002184698076624543</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>-0.01128212357008644</v>
+        <v>-0.011802553915224</v>
       </c>
       <c r="B51">
-        <v>0.005904444900531666</v>
+        <v>0.006392130437379955</v>
       </c>
       <c r="C51">
-        <v>-1.910784800290125</v>
+        <v>-1.846419441975859</v>
       </c>
       <c r="D51">
-        <v>0.08021221933541159</v>
+        <v>0.08962948595251671</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -1793,24 +1793,24 @@
         </is>
       </c>
       <c r="G51">
-        <v>-0.02285462292382969</v>
+        <v>-0.02433089935697098</v>
       </c>
       <c r="H51">
-        <v>0.0002903757836567999</v>
+        <v>0.000725791526522971</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.003334399047350753</v>
+        <v>0.006763736440661193</v>
       </c>
       <c r="B52">
-        <v>0.005013858069758728</v>
+        <v>0.005067271175900217</v>
       </c>
       <c r="C52">
-        <v>0.6650365847933163</v>
+        <v>1.334788726687711</v>
       </c>
       <c r="D52">
-        <v>0.518604425068421</v>
+        <v>0.2067180926750475</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1821,24 +1821,24 @@
         </is>
       </c>
       <c r="G52">
-        <v>-0.006492582192971866</v>
+        <v>-0.00316793256400116</v>
       </c>
       <c r="H52">
-        <v>0.01316138028767337</v>
+        <v>0.01669540544532355</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>-0.005899219790288819</v>
+        <v>-0.0055510789657418</v>
       </c>
       <c r="B53">
-        <v>0.002167482131547507</v>
+        <v>0.001813596169251045</v>
       </c>
       <c r="C53">
-        <v>-2.721692467230159</v>
+        <v>-3.060813129107022</v>
       </c>
       <c r="D53">
-        <v>0.01123178412451822</v>
+        <v>0.004947300660178292</v>
       </c>
       <c r="E53">
         <v>2</v>
@@ -1849,24 +1849,24 @@
         </is>
       </c>
       <c r="G53">
-        <v>-0.01014740670525604</v>
+        <v>-0.009105662139973656</v>
       </c>
       <c r="H53">
-        <v>-0.001651032875321598</v>
+        <v>-0.001996495791509944</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.00122737805717301</v>
+        <v>0.001138870844356919</v>
       </c>
       <c r="B54">
-        <v>0.004174059743868103</v>
+        <v>0.00388377007313748</v>
       </c>
       <c r="C54">
-        <v>0.2940489912670963</v>
+        <v>0.2932384829457447</v>
       </c>
       <c r="D54">
-        <v>0.7709691914307633</v>
+        <v>0.7715819519644551</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -1877,24 +1877,24 @@
         </is>
       </c>
       <c r="G54">
-        <v>-0.006953628710126955</v>
+        <v>-0.006473178623227033</v>
       </c>
       <c r="H54">
-        <v>0.009408384824472975</v>
+        <v>0.00875092031194087</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>-0.001576703773605854</v>
+        <v>-0.002396840379245952</v>
       </c>
       <c r="B55">
-        <v>0.003473319530941839</v>
+        <v>0.003193887117068905</v>
       </c>
       <c r="C55">
-        <v>-0.4539472281659929</v>
+        <v>-0.7504461777739915</v>
       </c>
       <c r="D55">
-        <v>0.6534948460500125</v>
+        <v>0.4594764220977389</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1905,24 +1905,24 @@
         </is>
       </c>
       <c r="G55">
-        <v>-0.008384284961051411</v>
+        <v>-0.008656744099387468</v>
       </c>
       <c r="H55">
-        <v>0.005230877413839702</v>
+        <v>0.003863063340895563</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>-0.003335863352384891</v>
+        <v>0.001186914456760826</v>
       </c>
       <c r="B56">
-        <v>0.003768040807141409</v>
+        <v>0.002479710064533667</v>
       </c>
       <c r="C56">
-        <v>-0.8853044654034984</v>
+        <v>0.4786504977887551</v>
       </c>
       <c r="D56">
-        <v>0.3933868056034951</v>
+        <v>0.6407902571757733</v>
       </c>
       <c r="E56">
         <v>2</v>
@@ -1933,24 +1933,24 @@
         </is>
       </c>
       <c r="G56">
-        <v>-0.01072108762665929</v>
+        <v>-0.003673227961826655</v>
       </c>
       <c r="H56">
-        <v>0.004049360921889504</v>
+        <v>0.006047056875348306</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>-0.01279226106981336</v>
+        <v>-0.01286685100222496</v>
       </c>
       <c r="B57">
-        <v>0.003353062278531909</v>
+        <v>0.005029052235641938</v>
       </c>
       <c r="C57">
-        <v>-3.815097963350169</v>
+        <v>-2.558504147368945</v>
       </c>
       <c r="D57">
-        <v>0.00246131096442667</v>
+        <v>0.02507042413121626</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -1961,24 +1961,24 @@
         </is>
       </c>
       <c r="G57">
-        <v>-0.01936414237365572</v>
+        <v>-0.0227236122604538</v>
       </c>
       <c r="H57">
-        <v>-0.006220379765971012</v>
+        <v>-0.003010089743996126</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>-0.003163364129973846</v>
+        <v>0.001967978508454743</v>
       </c>
       <c r="B58">
-        <v>0.004159491790342246</v>
+        <v>0.003463201198817832</v>
       </c>
       <c r="C58">
-        <v>-0.760516978857545</v>
+        <v>0.5682541658643785</v>
       </c>
       <c r="D58">
-        <v>0.4616279848367433</v>
+        <v>0.5803405955073451</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1989,24 +1989,24 @@
         </is>
       </c>
       <c r="G58">
-        <v>-0.01131581823303468</v>
+        <v>-0.004819771112444146</v>
       </c>
       <c r="H58">
-        <v>0.004989089973086985</v>
+        <v>0.008755728129353631</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>-0.003777693875813199</v>
+        <v>-0.005135190588590354</v>
       </c>
       <c r="B59">
-        <v>0.006035519797471499</v>
+        <v>0.005345065523288985</v>
       </c>
       <c r="C59">
-        <v>-0.625910278249077</v>
+        <v>-0.9607348247118421</v>
       </c>
       <c r="D59">
-        <v>0.5453937775264157</v>
+        <v>0.3593394572341522</v>
       </c>
       <c r="E59">
         <v>2</v>
@@ -2017,24 +2017,24 @@
         </is>
       </c>
       <c r="G59">
-        <v>-0.01560709530683582</v>
+        <v>-0.0156113265092435</v>
       </c>
       <c r="H59">
-        <v>0.008051707555209418</v>
+        <v>0.005340945332062793</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>-0.004461643677668545</v>
+        <v>-0.005566078332977823</v>
       </c>
       <c r="B60">
-        <v>0.005283778316398131</v>
+        <v>0.004978974819053774</v>
       </c>
       <c r="C60">
-        <v>-0.8444040250178356</v>
+        <v>-1.117916546128591</v>
       </c>
       <c r="D60">
-        <v>0.4181866166721903</v>
+        <v>0.289739432684516</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -2045,24 +2045,24 @@
         </is>
       </c>
       <c r="G60">
-        <v>-0.01481765888010256</v>
+        <v>-0.01532468965825505</v>
       </c>
       <c r="H60">
-        <v>0.005894371524765472</v>
+        <v>0.004192532992299405</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>-0.004459388823492949</v>
+        <v>-0.00286603398665025</v>
       </c>
       <c r="B61">
-        <v>0.00661937833952963</v>
+        <v>0.007107353056128888</v>
       </c>
       <c r="C61">
-        <v>-0.6736869528762774</v>
+        <v>-0.4032491370579629</v>
       </c>
       <c r="D61">
-        <v>0.5157788696044101</v>
+        <v>0.6952518983436573</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2073,24 +2073,24 @@
         </is>
       </c>
       <c r="G61">
-        <v>-0.01743313196901557</v>
+        <v>-0.01679619000207355</v>
       </c>
       <c r="H61">
-        <v>0.008514354322029667</v>
+        <v>0.01106412202877305</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.003758703021604058</v>
+        <v>0.003838534363650122</v>
       </c>
       <c r="B62">
-        <v>0.008863024790999468</v>
+        <v>0.008745429402434411</v>
       </c>
       <c r="C62">
-        <v>0.4240880636395236</v>
+        <v>0.4389189126129831</v>
       </c>
       <c r="D62">
-        <v>0.6758142728897503</v>
+        <v>0.6652030813391012</v>
       </c>
       <c r="E62">
         <v>2</v>
@@ -2101,24 +2101,24 @@
         </is>
       </c>
       <c r="G62">
-        <v>-0.01361250636284054</v>
+        <v>-0.01330219229445897</v>
       </c>
       <c r="H62">
-        <v>0.02112991240604865</v>
+        <v>0.02097926102175921</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>-0.002124247611583083</v>
+        <v>-0.001927319587385847</v>
       </c>
       <c r="B63">
-        <v>0.006546310247337068</v>
+        <v>0.006598236541480005</v>
       </c>
       <c r="C63">
-        <v>-0.3244954075384974</v>
+        <v>-0.2920961646751669</v>
       </c>
       <c r="D63">
-        <v>0.7487731628200213</v>
+        <v>0.7730793010456576</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -2129,24 +2129,24 @@
         </is>
       </c>
       <c r="G63">
-        <v>-0.01495477992798923</v>
+        <v>-0.01485962557016278</v>
       </c>
       <c r="H63">
-        <v>0.01070628470482306</v>
+        <v>0.01100498639539109</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.02329150444878736</v>
+        <v>0.02273035333115664</v>
       </c>
       <c r="B64">
-        <v>0.007019674919016219</v>
+        <v>0.007675785611193016</v>
       </c>
       <c r="C64">
-        <v>3.318031777467493</v>
+        <v>2.961306435918518</v>
       </c>
       <c r="D64">
-        <v>0.003269182317248375</v>
+        <v>0.007451436692962559</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2157,24 +2157,24 @@
         </is>
       </c>
       <c r="G64">
-        <v>0.009533194424336455</v>
+        <v>0.007686089980167558</v>
       </c>
       <c r="H64">
-        <v>0.03704981447323827</v>
+        <v>0.03777461668214571</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>-3.990277351567453E-05</v>
+        <v>0.000144680590071291</v>
       </c>
       <c r="B65">
-        <v>0.003030557552163641</v>
+        <v>0.00309707736947517</v>
       </c>
       <c r="C65">
-        <v>-0.01316680935070389</v>
+        <v>0.04671520043291931</v>
       </c>
       <c r="D65">
-        <v>0.9897819647120849</v>
+        <v>0.9637603880082477</v>
       </c>
       <c r="E65">
         <v>2</v>
@@ -2185,24 +2185,24 @@
         </is>
       </c>
       <c r="G65">
-        <v>-0.005979686428832277</v>
+        <v>-0.005925479511434091</v>
       </c>
       <c r="H65">
-        <v>0.005899880881800926</v>
+        <v>0.006214840691576673</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.001923310660460278</v>
+        <v>0.001827262663056861</v>
       </c>
       <c r="B66">
-        <v>0.003820844742435668</v>
+        <v>0.003758424891154265</v>
       </c>
       <c r="C66">
-        <v>0.5033731517795796</v>
+        <v>0.4861777781850744</v>
       </c>
       <c r="D66">
-        <v>0.626790727506059</v>
+        <v>0.6384597038356411</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -2213,24 +2213,24 @@
         </is>
       </c>
       <c r="G66">
-        <v>-0.005565407425232849</v>
+        <v>-0.00553911476220437</v>
       </c>
       <c r="H66">
-        <v>0.009412028746153404</v>
+        <v>0.00919364008831809</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>0.002677004549928655</v>
+        <v>0.002561061679503276</v>
       </c>
       <c r="B67">
-        <v>0.004683847974748716</v>
+        <v>0.004618918477571613</v>
       </c>
       <c r="C67">
-        <v>0.571539589747738</v>
+        <v>0.5544721544532971</v>
       </c>
       <c r="D67">
-        <v>0.5816243494662804</v>
+        <v>0.59276481820953</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2241,24 +2241,24 @@
         </is>
       </c>
       <c r="G67">
-        <v>-0.006503168789639701</v>
+        <v>-0.006491852184063662</v>
       </c>
       <c r="H67">
-        <v>0.01185717788949701</v>
+        <v>0.01161397554307021</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>0.006790722593260128</v>
+        <v>0.006786540237898214</v>
       </c>
       <c r="B68">
-        <v>0.002271816615000074</v>
+        <v>0.00227226941689462</v>
       </c>
       <c r="C68">
-        <v>2.989115647989883</v>
+        <v>2.986679390850135</v>
       </c>
       <c r="D68">
-        <v>0.03047833213633678</v>
+        <v>0.03056391261785826</v>
       </c>
       <c r="E68">
         <v>2</v>
@@ -2269,24 +2269,24 @@
         </is>
       </c>
       <c r="G68">
-        <v>0.002338043848380286</v>
+        <v>0.00233297401761293</v>
       </c>
       <c r="H68">
-        <v>0.01124340133813997</v>
+        <v>0.0112401064581835</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>0.001869146859891737</v>
+        <v>0.001867524786280003</v>
       </c>
       <c r="B69">
-        <v>0.003221567320410564</v>
+        <v>0.003221168686812651</v>
       </c>
       <c r="C69">
-        <v>0.5801979825315363</v>
+        <v>0.5797662177474848</v>
       </c>
       <c r="D69">
-        <v>0.5869446456744396</v>
+        <v>0.5872142836292045</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -2297,24 +2297,24 @@
         </is>
       </c>
       <c r="G69">
-        <v>-0.004445009061884176</v>
+        <v>-0.004445849828000973</v>
       </c>
       <c r="H69">
-        <v>0.008183302781667649</v>
+        <v>0.008180899400560979</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>0.002751943224375513</v>
+        <v>0.002753993831518936</v>
       </c>
       <c r="B70">
-        <v>0.002924787124304099</v>
+        <v>0.00292525320716166</v>
       </c>
       <c r="C70">
-        <v>0.9409037674939467</v>
+        <v>0.9414548541564048</v>
       </c>
       <c r="D70">
-        <v>0.3899537941657326</v>
+        <v>0.3896973025511258</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2325,24 +2325,24 @@
         </is>
       </c>
       <c r="G70">
-        <v>-0.002980534201706995</v>
+        <v>-0.002979397100178202</v>
       </c>
       <c r="H70">
-        <v>0.00848442065045802</v>
+        <v>0.008487384763216074</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>-0.009649028386999783</v>
+        <v>-0.005339935193135414</v>
       </c>
       <c r="B71">
-        <v>0.006762595823035092</v>
+        <v>0.005120099015538122</v>
       </c>
       <c r="C71">
-        <v>-1.426823166650413</v>
+        <v>-1.042935923100344</v>
       </c>
       <c r="D71">
-        <v>0.1873881069983588</v>
+        <v>0.3241815865159149</v>
       </c>
       <c r="E71">
         <v>2</v>
@@ -2353,24 +2353,24 @@
         </is>
       </c>
       <c r="G71">
-        <v>-0.02290347264214957</v>
+        <v>-0.01537514486086912</v>
       </c>
       <c r="H71">
-        <v>0.003605415868149999</v>
+        <v>0.004695274474598291</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>-0.001751716327762094</v>
+        <v>-0.004538576190190586</v>
       </c>
       <c r="B72">
-        <v>0.004120745071675339</v>
+        <v>0.003093994720581653</v>
       </c>
       <c r="C72">
-        <v>-0.4250969902998422</v>
+        <v>-1.466898492101292</v>
       </c>
       <c r="D72">
-        <v>0.6807490517670748</v>
+        <v>0.1764561243981294</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -2381,24 +2381,24 @@
         </is>
       </c>
       <c r="G72">
-        <v>-0.009828228257716681</v>
+        <v>-0.01060269441088769</v>
       </c>
       <c r="H72">
-        <v>0.006324795602192491</v>
+        <v>0.00152554203050652</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>0.004112791816958348</v>
+        <v>0.003971329408817076</v>
       </c>
       <c r="B73">
-        <v>0.001694333415571626</v>
+        <v>0.002257138393589321</v>
       </c>
       <c r="C73">
-        <v>2.427380454850319</v>
+        <v>1.759453217443983</v>
       </c>
       <c r="D73">
-        <v>0.03814609447150882</v>
+        <v>0.1123589894264044</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2409,24 +2409,24 @@
         </is>
       </c>
       <c r="G73">
-        <v>0.0007919593446352249</v>
+        <v>-0.000452580550740587</v>
       </c>
       <c r="H73">
-        <v>0.007433624289281472</v>
+        <v>0.008395239368374737</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>0.003854757977865322</v>
+        <v>0.004083518589021732</v>
       </c>
       <c r="B74">
-        <v>0.001582837208184506</v>
+        <v>0.001649095317078577</v>
       </c>
       <c r="C74">
-        <v>2.43534708303116</v>
+        <v>2.476217442819382</v>
       </c>
       <c r="D74">
-        <v>0.02267938284092685</v>
+        <v>0.02072063100457744</v>
       </c>
       <c r="E74">
         <v>2</v>
@@ -2437,24 +2437,24 @@
         </is>
       </c>
       <c r="G74">
-        <v>0.0007524540564337627</v>
+        <v>0.0008513511604740609</v>
       </c>
       <c r="H74">
-        <v>0.006957061899296881</v>
+        <v>0.007315686017569403</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>-0.0003784349551344207</v>
+        <v>-2.025791661250129E-05</v>
       </c>
       <c r="B75">
-        <v>0.006324030287476848</v>
+        <v>0.005626952495414832</v>
       </c>
       <c r="C75">
-        <v>-0.05984078790448173</v>
+        <v>-0.00360015774595727</v>
       </c>
       <c r="D75">
-        <v>0.952777948142415</v>
+        <v>0.9971572542424321</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -2465,24 +2465,24 @@
         </is>
       </c>
       <c r="G75">
-        <v>-0.01277330655572952</v>
+        <v>-0.01104888215034336</v>
       </c>
       <c r="H75">
-        <v>0.01201643664546069</v>
+        <v>0.01100836631711835</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.002035563611740385</v>
+        <v>0.001869549183215285</v>
       </c>
       <c r="B76">
-        <v>0.002730939524324607</v>
+        <v>0.00261964333295934</v>
       </c>
       <c r="C76">
-        <v>0.7453711785301447</v>
+        <v>0.7136655435850139</v>
       </c>
       <c r="D76">
-        <v>0.4632852276142891</v>
+        <v>0.4823170865852142</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -2493,24 +2493,24 @@
         </is>
       </c>
       <c r="G76">
-        <v>-0.003316979499892791</v>
+        <v>-0.00326485740172549</v>
       </c>
       <c r="H76">
-        <v>0.007388106723373561</v>
+        <v>0.007003955768156059</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>-0.003035179083728659</v>
+        <v>-0.0031766211303418</v>
       </c>
       <c r="B77">
-        <v>0.002329281957567191</v>
+        <v>0.00235768276785316</v>
       </c>
       <c r="C77">
-        <v>-1.303053532814353</v>
+        <v>-1.347348834904682</v>
       </c>
       <c r="D77">
-        <v>0.1990416446927539</v>
+        <v>0.1844674622350239</v>
       </c>
       <c r="E77">
         <v>2</v>
@@ -2521,24 +2521,24 @@
         </is>
       </c>
       <c r="G77">
-        <v>-0.007600487830399306</v>
+        <v>-0.007797594442304703</v>
       </c>
       <c r="H77">
-        <v>0.001530129662941989</v>
+        <v>0.001444352181621102</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>-0.0001760425295862059</v>
+        <v>-0.0002215876368160261</v>
       </c>
       <c r="B78">
-        <v>0.002428783776478578</v>
+        <v>0.0024419746914441</v>
       </c>
       <c r="C78">
-        <v>-0.07248176280288103</v>
+        <v>-0.0907411684455201</v>
       </c>
       <c r="D78">
-        <v>0.9425327632264473</v>
+        <v>0.9280922429782495</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -2549,24 +2549,24 @@
         </is>
       </c>
       <c r="G78">
-        <v>-0.004936371257719399</v>
+        <v>-0.005007770083204773</v>
       </c>
       <c r="H78">
-        <v>0.004584286198546987</v>
+        <v>0.004564594809572721</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>0.001405246447320467</v>
+        <v>0.001374507188818791</v>
       </c>
       <c r="B79">
-        <v>0.002210250323814474</v>
+        <v>0.002175656123197718</v>
       </c>
       <c r="C79">
-        <v>0.6357861062973524</v>
+        <v>0.6317667457477514</v>
       </c>
       <c r="D79">
-        <v>0.528066468892926</v>
+        <v>0.5306666605860526</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -2577,24 +2577,24 @@
         </is>
       </c>
       <c r="G79">
-        <v>-0.002926764584173894</v>
+        <v>-0.002889700455392774</v>
       </c>
       <c r="H79">
-        <v>0.005737257478814828</v>
+        <v>0.005638714833030356</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>-0.006151709654275703</v>
+        <v>-0.006335527885628725</v>
       </c>
       <c r="B80">
-        <v>0.003592715663704268</v>
+        <v>0.00356154727846647</v>
       </c>
       <c r="C80">
-        <v>-1.712272896078</v>
+        <v>-1.778869516609836</v>
       </c>
       <c r="D80">
-        <v>0.0956944961046961</v>
+        <v>0.08394825048705655</v>
       </c>
       <c r="E80">
         <v>2</v>
@@ -2605,24 +2605,24 @@
         </is>
       </c>
       <c r="G80">
-        <v>-0.01319330296182899</v>
+        <v>-0.01331603228065965</v>
       </c>
       <c r="H80">
-        <v>0.000889883653277578</v>
+        <v>0.0006449765094022021</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>-0.004194444268039992</v>
+        <v>-0.004239071569187606</v>
       </c>
       <c r="B81">
-        <v>0.002337844906487401</v>
+        <v>0.002308057237072265</v>
       </c>
       <c r="C81">
-        <v>-1.794149926883782</v>
+        <v>-1.836640574202052</v>
       </c>
       <c r="D81">
-        <v>0.08143183687880526</v>
+        <v>0.07476784897013912</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -2633,24 +2633,24 @@
         </is>
       </c>
       <c r="G81">
-        <v>-0.008776536086195708</v>
+        <v>-0.00876278062810627</v>
       </c>
       <c r="H81">
-        <v>0.0003876475501157235</v>
+        <v>0.0002846374897310577</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>-0.0009250789470149225</v>
+        <v>-0.001006716288518477</v>
       </c>
       <c r="B82">
-        <v>0.001979121030884687</v>
+        <v>0.001986965607427341</v>
       </c>
       <c r="C82">
-        <v>-0.4674190878570994</v>
+        <v>-0.5066601478935213</v>
       </c>
       <c r="D82">
-        <v>0.6430972768050138</v>
+        <v>0.6155704599144591</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -2661,24 +2661,24 @@
         </is>
       </c>
       <c r="G82">
-        <v>-0.004804084888594692</v>
+        <v>-0.004901097317595816</v>
       </c>
       <c r="H82">
-        <v>0.002953926994564847</v>
+        <v>0.002887664740558862</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>-0.007938163111687437</v>
+        <v>-0.007927562045994369</v>
       </c>
       <c r="B83">
-        <v>0.004682167304900662</v>
+        <v>0.004676417424808988</v>
       </c>
       <c r="C83">
-        <v>-1.69540355881321</v>
+        <v>-1.695221218691395</v>
       </c>
       <c r="D83">
-        <v>0.09970956536441795</v>
+        <v>0.09974448809540438</v>
       </c>
       <c r="E83">
         <v>2</v>
@@ -2689,24 +2689,24 @@
         </is>
       </c>
       <c r="G83">
-        <v>-0.0171150423988837</v>
+        <v>-0.01709317177529553</v>
       </c>
       <c r="H83">
-        <v>0.001238716175508829</v>
+        <v>0.001238047683306792</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>-0.03517315265234927</v>
+        <v>-0.03516431234654153</v>
       </c>
       <c r="B84">
-        <v>0.003525541704046559</v>
+        <v>0.003526447039707657</v>
       </c>
       <c r="C84">
-        <v>-9.976666170755577</v>
+        <v>-9.971598027871321</v>
       </c>
       <c r="D84">
-        <v>2.40040596794212E-11</v>
+        <v>2.430398195244577E-11</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -2717,24 +2717,24 @@
         </is>
       </c>
       <c r="G84">
-        <v>-0.0420830874182745</v>
+        <v>-0.04207602153775643</v>
       </c>
       <c r="H84">
-        <v>-0.02826321788642405</v>
+        <v>-0.02825260315532663</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>0.0265142513672153</v>
+        <v>0.02652307620418129</v>
       </c>
       <c r="B85">
-        <v>0.005894067979231839</v>
+        <v>0.005892895634757801</v>
       </c>
       <c r="C85">
-        <v>4.498463787767653</v>
+        <v>4.500856259483271</v>
       </c>
       <c r="D85">
-        <v>8.47996107202509E-05</v>
+        <v>8.421835701716632E-05</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -2745,24 +2745,24 @@
         </is>
       </c>
       <c r="G85">
-        <v>0.01496209040549012</v>
+        <v>0.0149732129954027</v>
       </c>
       <c r="H85">
-        <v>0.03806641232894047</v>
+        <v>0.03807293941295987</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>-0.0202227454014771</v>
+        <v>-0.02162999094510439</v>
       </c>
       <c r="B86">
-        <v>0.007960548442471481</v>
+        <v>0.006923490072203515</v>
       </c>
       <c r="C86">
-        <v>-2.540370873642799</v>
+        <v>-3.124145585467748</v>
       </c>
       <c r="D86">
-        <v>0.03169149175494073</v>
+        <v>0.01223659123742903</v>
       </c>
       <c r="E86">
         <v>2</v>
@@ -2773,24 +2773,24 @@
         </is>
       </c>
       <c r="G86">
-        <v>-0.03582513364590762</v>
+        <v>-0.0351997821339439</v>
       </c>
       <c r="H86">
-        <v>-0.004620357157046577</v>
+        <v>-0.008060199756264885</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>-0.002308191846565592</v>
+        <v>-0.001907677128865043</v>
       </c>
       <c r="B87">
-        <v>0.003919998801324456</v>
+        <v>0.003792092751600963</v>
       </c>
       <c r="C87">
-        <v>-0.5888246307079789</v>
+        <v>-0.5030671066944897</v>
       </c>
       <c r="D87">
-        <v>0.5704599831138009</v>
+        <v>0.6269974709973112</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -2801,24 +2801,24 @@
         </is>
       </c>
       <c r="G87">
-        <v>-0.009991248316601708</v>
+        <v>-0.009340042348038324</v>
       </c>
       <c r="H87">
-        <v>0.005374864623470522</v>
+        <v>0.005524688090308237</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>-0.01506675082050071</v>
+        <v>-0.01535059193469744</v>
       </c>
       <c r="B88">
-        <v>0.003581748099912523</v>
+        <v>0.003648691797369691</v>
       </c>
       <c r="C88">
-        <v>-4.206535579894265</v>
+        <v>-4.207149517469121</v>
       </c>
       <c r="D88">
-        <v>0.002284485439060355</v>
+        <v>0.002282411086239752</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -2829,24 +2829,24 @@
         </is>
       </c>
       <c r="G88">
-        <v>-0.02208684809802402</v>
+        <v>-0.02250189644822875</v>
       </c>
       <c r="H88">
-        <v>-0.008046653542977393</v>
+        <v>-0.008199287421166128</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>0.003269707572074953</v>
+        <v>0.003108722117318767</v>
       </c>
       <c r="B89">
-        <v>0.007486763213036582</v>
+        <v>0.007901298230457493</v>
       </c>
       <c r="C89">
-        <v>0.4367317997157254</v>
+        <v>0.3934444728760439</v>
       </c>
       <c r="D89">
-        <v>0.665911479415309</v>
+        <v>0.6971991150276451</v>
       </c>
       <c r="E89">
         <v>2</v>
@@ -2857,24 +2857,24 @@
         </is>
       </c>
       <c r="G89">
-        <v>-0.01140407868625612</v>
+        <v>-0.01237753784548798</v>
       </c>
       <c r="H89">
-        <v>0.01794349383040603</v>
+        <v>0.01859498208012551</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>0.00652515204886408</v>
+        <v>0.006322689172574654</v>
       </c>
       <c r="B90">
-        <v>0.006228866864122054</v>
+        <v>0.006122681534801279</v>
       </c>
       <c r="C90">
-        <v>1.047566466133449</v>
+        <v>1.032666673358157</v>
       </c>
       <c r="D90">
-        <v>0.3044795880596481</v>
+        <v>0.3112705365685671</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -2885,24 +2885,24 @@
         </is>
       </c>
       <c r="G90">
-        <v>-0.005683202669310091</v>
+        <v>-0.005677546124444275</v>
       </c>
       <c r="H90">
-        <v>0.01873350676703825</v>
+        <v>0.01832292446959358</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.006956574926193041</v>
+        <v>0.00686744135690385</v>
       </c>
       <c r="B91">
-        <v>0.007585583773218958</v>
+        <v>0.00814766445076043</v>
       </c>
       <c r="C91">
-        <v>0.9170783863403309</v>
+        <v>0.8428723836636284</v>
       </c>
       <c r="D91">
-        <v>0.3675304823241189</v>
+        <v>0.4069872129365425</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -2913,24 +2913,24 @@
         </is>
       </c>
       <c r="G91">
-        <v>-0.007910896071027565</v>
+        <v>-0.009101687524703911</v>
       </c>
       <c r="H91">
-        <v>0.02182404592341364</v>
+        <v>0.02283657023851161</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.02119078913347542</v>
+        <v>0.02119324145762022</v>
       </c>
       <c r="B92">
-        <v>0.004073193364801585</v>
+        <v>0.004064713149256565</v>
       </c>
       <c r="C92">
-        <v>5.202500160339841</v>
+        <v>5.213957462532495</v>
       </c>
       <c r="D92">
-        <v>0.0005621754503723713</v>
+        <v>0.0005536420369793497</v>
       </c>
       <c r="E92">
         <v>2</v>
@@ -2941,24 +2941,24 @@
         </is>
       </c>
       <c r="G92">
-        <v>0.0132074768363968</v>
+        <v>0.01322655007759098</v>
       </c>
       <c r="H92">
-        <v>0.02917410143055404</v>
+        <v>0.02915993283764947</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>0.02643108217826383</v>
+        <v>0.02643858789679606</v>
       </c>
       <c r="B93">
-        <v>0.005536790493048188</v>
+        <v>0.005548054413859194</v>
       </c>
       <c r="C93">
-        <v>4.773719036588043</v>
+        <v>4.765380063820524</v>
       </c>
       <c r="D93">
-        <v>0.001010101142995715</v>
+        <v>0.001021948072730583</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -2969,24 +2969,24 @@
         </is>
       </c>
       <c r="G93">
-        <v>0.01557917222194561</v>
+        <v>0.01556460106136357</v>
       </c>
       <c r="H93">
-        <v>0.03728299213458204</v>
+        <v>0.03731257473222856</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>0.005200928584989298</v>
+        <v>0.005207649007305722</v>
       </c>
       <c r="B94">
-        <v>0.01007508971121682</v>
+        <v>0.01006621154013651</v>
       </c>
       <c r="C94">
-        <v>0.5162166029349582</v>
+        <v>0.5173395161170139</v>
       </c>
       <c r="D94">
-        <v>0.6181457550980825</v>
+        <v>0.6173928335392005</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -2997,24 +2997,24 @@
         </is>
       </c>
       <c r="G94">
-        <v>-0.01454588439000573</v>
+        <v>-0.0145217630721233</v>
       </c>
       <c r="H94">
-        <v>0.02494774155998432</v>
+        <v>0.02493706108673474</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.02027380924928246</v>
+        <v>0.0212215175416705</v>
       </c>
       <c r="B95">
-        <v>0.01599692175294476</v>
+        <v>0.01642541316903829</v>
       </c>
       <c r="C95">
-        <v>1.267356905434034</v>
+        <v>1.291992921168815</v>
       </c>
       <c r="D95">
-        <v>0.2337447336775433</v>
+        <v>0.2254187143413472</v>
       </c>
       <c r="E95">
         <v>2</v>
@@ -3025,24 +3025,24 @@
         </is>
       </c>
       <c r="G95">
-        <v>-0.01107958124999462</v>
+        <v>-0.01097170070083447</v>
       </c>
       <c r="H95">
-        <v>0.05162719974855953</v>
+        <v>0.05341473578417545</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>-0.001688207236110469</v>
+        <v>-0.0006587958118175686</v>
       </c>
       <c r="B96">
-        <v>0.0159786723481028</v>
+        <v>0.01520551960936238</v>
       </c>
       <c r="C96">
-        <v>-0.105653786455601</v>
+        <v>-0.04332609662427669</v>
       </c>
       <c r="D96">
-        <v>0.9179463525708516</v>
+        <v>0.9662945044174844</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -3053,24 +3053,24 @@
         </is>
       </c>
       <c r="G96">
-        <v>-0.03300582955915801</v>
+        <v>-0.03046106661238539</v>
       </c>
       <c r="H96">
-        <v>0.02962941508693707</v>
+        <v>0.02914347498875025</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>-0.01156972606348338</v>
+        <v>-0.01002375126515943</v>
       </c>
       <c r="B97">
-        <v>0.01685572451995137</v>
+        <v>0.0170853329792215</v>
       </c>
       <c r="C97">
-        <v>-0.6863974342834575</v>
+        <v>-0.5866874984145709</v>
       </c>
       <c r="D97">
-        <v>0.5080649356711846</v>
+        <v>0.5704198750251601</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -3081,24 +3081,24 @@
         </is>
       </c>
       <c r="G97">
-        <v>-0.04460633905591675</v>
+        <v>-0.043510388568308</v>
       </c>
       <c r="H97">
-        <v>0.02146688692894998</v>
+        <v>0.02346288603798913</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>-0.01014743378142239</v>
+        <v>-0.009592221475446708</v>
       </c>
       <c r="B98">
-        <v>0.003350941395282292</v>
+        <v>0.003613341602405752</v>
       </c>
       <c r="C98">
-        <v>-3.02823373625952</v>
+        <v>-2.654667764891157</v>
       </c>
       <c r="D98">
-        <v>0.01271542653958096</v>
+        <v>0.02411903603688959</v>
       </c>
       <c r="E98">
         <v>2</v>
@@ -3109,24 +3109,24 @@
         </is>
       </c>
       <c r="G98">
-        <v>-0.01671515823048007</v>
+        <v>-0.01667424088000223</v>
       </c>
       <c r="H98">
-        <v>-0.003579709332364698</v>
+        <v>-0.002510202070891188</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>-0.01627634956349501</v>
+        <v>-0.01400700717759074</v>
       </c>
       <c r="B99">
-        <v>0.01270863402341996</v>
+        <v>0.01434351671591973</v>
       </c>
       <c r="C99">
-        <v>-1.280731629654322</v>
+        <v>-0.9765392584682182</v>
       </c>
       <c r="D99">
-        <v>0.2291938177612829</v>
+        <v>0.3518290201261686</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -3137,24 +3137,24 @@
         </is>
       </c>
       <c r="G99">
-        <v>-0.04118481454209849</v>
+        <v>-0.04211978335244165</v>
       </c>
       <c r="H99">
-        <v>0.008632115415108471</v>
+        <v>0.01410576899726015</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>0.00645384733477001</v>
+        <v>0.008409594867404531</v>
       </c>
       <c r="B100">
-        <v>0.01133095977530106</v>
+        <v>0.0103629341844146</v>
       </c>
       <c r="C100">
-        <v>0.5695764050665808</v>
+        <v>0.8115071192917733</v>
       </c>
       <c r="D100">
-        <v>0.5815331966920763</v>
+        <v>0.4359644278120357</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -3165,24 +3165,24 @@
         </is>
       </c>
       <c r="G100">
-        <v>-0.01575442573509213</v>
+        <v>-0.01190138290820703</v>
       </c>
       <c r="H100">
-        <v>0.02866212040463214</v>
+        <v>0.02872057264301609</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>-0.01348767168201386</v>
+        <v>-0.00296496772728568</v>
       </c>
       <c r="B101">
-        <v>0.01119141093906512</v>
+        <v>0.003645773425318021</v>
       </c>
       <c r="C101">
-        <v>-1.20518062963208</v>
+        <v>-0.8132616543572085</v>
       </c>
       <c r="D101">
-        <v>0.2558783333422454</v>
+        <v>0.4350036895614751</v>
       </c>
       <c r="E101">
         <v>2</v>
@@ -3193,24 +3193,24 @@
         </is>
       </c>
       <c r="G101">
-        <v>-0.03542243405876908</v>
+        <v>-0.01011055233670223</v>
       </c>
       <c r="H101">
-        <v>0.008447090694741368</v>
+        <v>0.004180616882130866</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>-0.01244660371114192</v>
+        <v>-0.005623280758023532</v>
       </c>
       <c r="B102">
-        <v>0.008508170318214027</v>
+        <v>0.006251497769307196</v>
       </c>
       <c r="C102">
-        <v>-1.46290015897973</v>
+        <v>-0.8995093600819946</v>
       </c>
       <c r="D102">
-        <v>0.1742026581346941</v>
+        <v>0.3895281017280411</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -3221,24 +3221,24 @@
         </is>
       </c>
       <c r="G102">
-        <v>-0.0291223111091741</v>
+        <v>-0.01787599123529812</v>
       </c>
       <c r="H102">
-        <v>0.004229103686890261</v>
+        <v>0.006629429719251055</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>-0.007315818522402665</v>
+        <v>-0.001287090812132001</v>
       </c>
       <c r="B103">
-        <v>0.006504650566439198</v>
+        <v>0.003759628566450961</v>
       </c>
       <c r="C103">
-        <v>-1.124705846636666</v>
+        <v>-0.3423452049538492</v>
       </c>
       <c r="D103">
-        <v>0.286985017319957</v>
+        <v>0.7391775430655823</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -3249,24 +3249,24 @@
         </is>
       </c>
       <c r="G103">
-        <v>-0.02006469936464155</v>
+        <v>-0.008655827397623836</v>
       </c>
       <c r="H103">
-        <v>0.005433062319836223</v>
+        <v>0.006081645773359835</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>-0.003381159325037925</v>
+        <v>-0.003350386758937574</v>
       </c>
       <c r="B104">
-        <v>0.01046230948478665</v>
+        <v>0.01020996665238271</v>
       </c>
       <c r="C104">
-        <v>-0.3231752348708956</v>
+        <v>-0.3281486485713143</v>
       </c>
       <c r="D104">
-        <v>0.7510239500212277</v>
+        <v>0.7473351701075026</v>
       </c>
       <c r="E104">
         <v>2</v>
@@ -3277,24 +3277,24 @@
         </is>
       </c>
       <c r="G104">
-        <v>-0.02388690911033157</v>
+        <v>-0.02336155368096267</v>
       </c>
       <c r="H104">
-        <v>0.01712459046025572</v>
+        <v>0.01666078016308753</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>-0.01438945388895448</v>
+        <v>-0.01443871592844132</v>
       </c>
       <c r="B105">
-        <v>0.006716600620904368</v>
+        <v>0.006774588427326768</v>
       </c>
       <c r="C105">
-        <v>-2.142371521118817</v>
+        <v>-2.13130525689201</v>
       </c>
       <c r="D105">
-        <v>0.04897751009344964</v>
+        <v>0.05001363893784997</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -3305,24 +3305,24 @@
         </is>
       </c>
       <c r="G105">
-        <v>-0.02755374920446641</v>
+        <v>-0.02771666525608362</v>
       </c>
       <c r="H105">
-        <v>-0.001225158573442561</v>
+        <v>-0.00116076660079901</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.01819086042677356</v>
+        <v>0.0181419624920223</v>
       </c>
       <c r="B106">
-        <v>0.005997941306513956</v>
+        <v>0.006013370427977993</v>
       </c>
       <c r="C106">
-        <v>3.032850689455348</v>
+        <v>3.016937457838028</v>
       </c>
       <c r="D106">
-        <v>0.008391852200028787</v>
+        <v>0.008668468951746174</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -3333,10 +3333,10 @@
         </is>
       </c>
       <c r="G106">
-        <v>0.006435111484621094</v>
+        <v>0.006355973027487227</v>
       </c>
       <c r="H106">
-        <v>0.02994660936892603</v>
+        <v>0.02992795195655738</v>
       </c>
     </row>
     <row r="107">
@@ -3425,16 +3425,16 @@
     </row>
     <row r="110">
       <c r="A110">
-        <v>0.001028868870748677</v>
+        <v>0.001022335728402522</v>
       </c>
       <c r="B110">
-        <v>0.003715713918286445</v>
+        <v>0.003706225374163826</v>
       </c>
       <c r="C110">
-        <v>0.2768966861752248</v>
+        <v>0.2758428387893637</v>
       </c>
       <c r="D110">
-        <v>0.7881138349347361</v>
+        <v>0.7888978558235611</v>
       </c>
       <c r="E110">
         <v>2</v>
@@ -3445,24 +3445,24 @@
         </is>
       </c>
       <c r="G110">
-        <v>-0.006253796585946961</v>
+        <v>-0.006241732523547063</v>
       </c>
       <c r="H110">
-        <v>0.008311534327444314</v>
+        <v>0.008286403980352106</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>-0.008449666748458554</v>
+        <v>-0.008462695271532482</v>
       </c>
       <c r="B111">
-        <v>0.003279443645240139</v>
+        <v>0.0032811546940582</v>
       </c>
       <c r="C111">
-        <v>-2.576554947276681</v>
+        <v>-2.579182044314297</v>
       </c>
       <c r="D111">
-        <v>0.02986492051613366</v>
+        <v>0.02973649373519313</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -3473,24 +3473,24 @@
         </is>
       </c>
       <c r="G111">
-        <v>-0.01487725818245798</v>
+        <v>-0.01489364029959109</v>
       </c>
       <c r="H111">
-        <v>-0.002022075314459132</v>
+        <v>-0.002031750243473872</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.006496958588006183</v>
+        <v>0.006481990390677195</v>
       </c>
       <c r="B112">
-        <v>0.004437632572931243</v>
+        <v>0.004441045769142066</v>
       </c>
       <c r="C112">
-        <v>1.464059604131369</v>
+        <v>1.459563969305681</v>
       </c>
       <c r="D112">
-        <v>0.1772118241235618</v>
+        <v>0.178414322291384</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -3501,24 +3501,24 @@
         </is>
       </c>
       <c r="G112">
-        <v>-0.002200641431560866</v>
+        <v>-0.002222299370535238</v>
       </c>
       <c r="H112">
-        <v>0.01519455860757323</v>
+        <v>0.01518628015188963</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>0.007501515790952205</v>
+        <v>0.007648411628852794</v>
       </c>
       <c r="B113">
-        <v>0.003004250663106873</v>
+        <v>0.003017911510776258</v>
       </c>
       <c r="C113">
-        <v>2.49696734133178</v>
+        <v>2.534339261287847</v>
       </c>
       <c r="D113">
-        <v>0.02807112830052919</v>
+        <v>0.02620958009968931</v>
       </c>
       <c r="E113">
         <v>2</v>
@@ -3529,24 +3529,24 @@
         </is>
       </c>
       <c r="G113">
-        <v>0.00161329269073216</v>
+        <v>0.001733413759202465</v>
       </c>
       <c r="H113">
-        <v>0.01338973889117225</v>
+        <v>0.01356340949850312</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>-0.004786066222875018</v>
+        <v>-0.004797067822734913</v>
       </c>
       <c r="B114">
-        <v>0.005759631761808099</v>
+        <v>0.005804504616522405</v>
       </c>
       <c r="C114">
-        <v>-0.8309673987512957</v>
+        <v>-0.8264387987702095</v>
       </c>
       <c r="D114">
-        <v>0.422218277252588</v>
+        <v>0.4246829962542302</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -3557,24 +3557,24 @@
         </is>
       </c>
       <c r="G114">
-        <v>-0.01607473704023187</v>
+        <v>-0.0161736878192153</v>
       </c>
       <c r="H114">
-        <v>0.006502604594481831</v>
+        <v>0.006579552173745476</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>-0.001433197324948246</v>
+        <v>-0.001420495432430532</v>
       </c>
       <c r="B115">
-        <v>0.004885867015228495</v>
+        <v>0.004878010898426857</v>
       </c>
       <c r="C115">
-        <v>-0.293335311927482</v>
+        <v>-0.2912038250854743</v>
       </c>
       <c r="D115">
-        <v>0.774277004944362</v>
+        <v>0.7758676072616585</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -3585,24 +3585,24 @@
         </is>
       </c>
       <c r="G115">
-        <v>-0.01100932070804831</v>
+        <v>-0.01098122110954104</v>
       </c>
       <c r="H115">
-        <v>0.008142926058151813</v>
+        <v>0.008140230244679978</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>-0.008932704045753068</v>
+        <v>-0.008886973320488408</v>
       </c>
       <c r="B116">
-        <v>0.004707714889707301</v>
+        <v>0.00455647560080192</v>
       </c>
       <c r="C116">
-        <v>-1.897460711837724</v>
+        <v>-1.950405115507332</v>
       </c>
       <c r="D116">
-        <v>0.08208407016277849</v>
+        <v>0.07487487711148026</v>
       </c>
       <c r="E116">
         <v>2</v>
@@ -3613,24 +3613,24 @@
         </is>
       </c>
       <c r="G116">
-        <v>-0.01815965567906233</v>
+        <v>-0.01781750139449568</v>
       </c>
       <c r="H116">
-        <v>0.0002942475875561922</v>
+        <v>4.355475351885789E-05</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>0.004362755743339582</v>
+        <v>0.004476515013780634</v>
       </c>
       <c r="B117">
-        <v>0.006759208806674937</v>
+        <v>0.006649366587689945</v>
       </c>
       <c r="C117">
-        <v>0.6454536127114788</v>
+        <v>0.6732242770413744</v>
       </c>
       <c r="D117">
-        <v>0.530781473003417</v>
+        <v>0.5135618266839688</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -3641,24 +3641,24 @@
         </is>
       </c>
       <c r="G117">
-        <v>-0.00888505008172925</v>
+        <v>-0.008556004018095652</v>
       </c>
       <c r="H117">
-        <v>0.01761056156840841</v>
+        <v>0.01750903404565692</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>-0.01548870098191718</v>
+        <v>-0.01535777773052003</v>
       </c>
       <c r="B118">
-        <v>0.008079324720689049</v>
+        <v>0.008116557872040452</v>
       </c>
       <c r="C118">
-        <v>-1.917078656617755</v>
+        <v>-1.892154035323743</v>
       </c>
       <c r="D118">
-        <v>0.07934168153971238</v>
+        <v>0.08284064386517392</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -3669,24 +3669,24 @@
         </is>
       </c>
       <c r="G118">
-        <v>-0.03132388645387185</v>
+        <v>-0.03126593883815437</v>
       </c>
       <c r="H118">
-        <v>0.0003464844900374804</v>
+        <v>0.00055038337711431</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>0.005682319026312257</v>
+        <v>0.005734860398385707</v>
       </c>
       <c r="B119">
-        <v>0.004219368253387496</v>
+        <v>0.004239745192659271</v>
       </c>
       <c r="C119">
-        <v>1.346722704696429</v>
+        <v>1.352642703225442</v>
       </c>
       <c r="D119">
-        <v>0.1968373177004581</v>
+        <v>0.1949776097049883</v>
       </c>
       <c r="E119">
         <v>2</v>
@@ -3697,24 +3697,24 @@
         </is>
       </c>
       <c r="G119">
-        <v>-0.002587490787838907</v>
+        <v>-0.002574887482853296</v>
       </c>
       <c r="H119">
-        <v>0.01395212884046342</v>
+        <v>0.01404460827962471</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>0.006049681241590294</v>
+        <v>0.006115619672155846</v>
       </c>
       <c r="B120">
-        <v>0.004052445847121419</v>
+        <v>0.004073488560453555</v>
       </c>
       <c r="C120">
-        <v>1.492846905255397</v>
+        <v>1.501322412324367</v>
       </c>
       <c r="D120">
-        <v>0.1549331242992745</v>
+        <v>0.1527484878214326</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -3725,24 +3725,24 @@
         </is>
       </c>
       <c r="G120">
-        <v>-0.001892966668066596</v>
+        <v>-0.001868271197769032</v>
       </c>
       <c r="H120">
-        <v>0.01399232915124718</v>
+        <v>0.01409951054208072</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>0.01190373272665592</v>
+        <v>0.01197521441665363</v>
       </c>
       <c r="B121">
-        <v>0.004745009333278777</v>
+        <v>0.004756972302463557</v>
       </c>
       <c r="C121">
-        <v>2.508684786596721</v>
+        <v>2.517402594598222</v>
       </c>
       <c r="D121">
-        <v>0.02326398979359778</v>
+        <v>0.02285899215763569</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -3753,24 +3753,24 @@
         </is>
       </c>
       <c r="G121">
-        <v>0.002603685327123103</v>
+        <v>0.002651720028370488</v>
       </c>
       <c r="H121">
-        <v>0.02120378012618873</v>
+        <v>0.02129870880493678</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>0.003847336666636516</v>
+        <v>0.003751122438515814</v>
       </c>
       <c r="B122">
-        <v>0.006073691383857743</v>
+        <v>0.006030736406816152</v>
       </c>
       <c r="C122">
-        <v>0.6334428971583432</v>
+        <v>0.6220007285140439</v>
       </c>
       <c r="D122">
-        <v>0.5348744598311008</v>
+        <v>0.5421942959614764</v>
       </c>
       <c r="E122">
         <v>2</v>
@@ -3781,24 +3781,24 @@
         </is>
       </c>
       <c r="G122">
-        <v>-0.008056879698935902</v>
+        <v>-0.008068903719098339</v>
       </c>
       <c r="H122">
-        <v>0.01575155303220893</v>
+        <v>0.01557114859612996</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>-0.01432191414364282</v>
+        <v>-0.01409057835502488</v>
       </c>
       <c r="B123">
-        <v>0.007970964136457223</v>
+        <v>0.007178347136508525</v>
       </c>
       <c r="C123">
-        <v>-1.796760579832233</v>
+        <v>-1.962927967548584</v>
       </c>
       <c r="D123">
-        <v>0.09016339907729073</v>
+        <v>0.06623111964504839</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -3809,24 +3809,24 @@
         </is>
       </c>
       <c r="G123">
-        <v>-0.02994471677315939</v>
+        <v>-0.02815988021110782</v>
       </c>
       <c r="H123">
-        <v>0.001300888485873748</v>
+        <v>-2.127649894194741E-05</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>-0.006083599408350453</v>
+        <v>-0.006158220766667848</v>
       </c>
       <c r="B124">
-        <v>0.005497086723945731</v>
+        <v>0.005491074920911921</v>
       </c>
       <c r="C124">
-        <v>-1.106695184896725</v>
+        <v>-1.121496401954962</v>
       </c>
       <c r="D124">
-        <v>0.2838406830159113</v>
+        <v>0.2776688593413024</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -3837,24 +3837,24 @@
         </is>
       </c>
       <c r="G124">
-        <v>-0.01685769140717736</v>
+        <v>-0.01692052984806634</v>
       </c>
       <c r="H124">
-        <v>0.004690492590476453</v>
+        <v>0.00460408831473064</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>-0.002290543857723361</v>
+        <v>-0.002432558688161126</v>
       </c>
       <c r="B125">
-        <v>0.007474146327712742</v>
+        <v>0.007390170649978903</v>
       </c>
       <c r="C125">
-        <v>-0.3064622710463202</v>
+        <v>-0.32916136898247</v>
       </c>
       <c r="D125">
-        <v>0.7611780271938424</v>
+        <v>0.7441137619458444</v>
       </c>
       <c r="E125">
         <v>2</v>
@@ -3865,24 +3865,24 @@
         </is>
       </c>
       <c r="G125">
-        <v>-0.01693960147522264</v>
+        <v>-0.01691702700172474</v>
       </c>
       <c r="H125">
-        <v>0.01235851375977591</v>
+        <v>0.01205190962540248</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>-0.01075543962211042</v>
+        <v>-0.01082172648611272</v>
       </c>
       <c r="B126">
-        <v>0.006573593453498494</v>
+        <v>0.006353788490839542</v>
       </c>
       <c r="C126">
-        <v>-1.636158320132549</v>
+        <v>-1.703192748974056</v>
       </c>
       <c r="D126">
-        <v>0.1113100353185946</v>
+        <v>0.09793403468330918</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -3893,24 +3893,24 @@
         </is>
       </c>
       <c r="G126">
-        <v>-0.02363944603997574</v>
+        <v>-0.02327492309354332</v>
       </c>
       <c r="H126">
-        <v>0.002128566795754905</v>
+        <v>0.001631470121317884</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>-0.009583320272121739</v>
+        <v>-0.009587263707556975</v>
       </c>
       <c r="B127">
-        <v>0.005016227599282222</v>
+        <v>0.004952968378289187</v>
       </c>
       <c r="C127">
-        <v>-1.910463606853291</v>
+        <v>-1.935660189065961</v>
       </c>
       <c r="D127">
-        <v>0.06479506769540488</v>
+        <v>0.06151560505328608</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -3921,10 +3921,10 @@
         </is>
       </c>
       <c r="G127">
-        <v>-0.01941494570497071</v>
+        <v>-0.01929490334556954</v>
       </c>
       <c r="H127">
-        <v>0.0002483051607272309</v>
+        <v>0.0001203759304555865</v>
       </c>
     </row>
   </sheetData>
